--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
         <v>1.32</v>
       </c>
       <c r="H2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>1.21</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
         <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
         <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>320</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1297,16 +1297,16 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
         <v>3.15</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
         <v>2.88</v>
@@ -1351,13 +1351,13 @@
         <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,10 +1366,10 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
         <v>1.73</v>
@@ -1378,16 +1378,16 @@
         <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,22 +1396,22 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>13.5</v>
@@ -1420,13 +1420,13 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1510,7 +1510,7 @@
         <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
         <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
         <v>3.95</v>
@@ -1627,7 +1627,7 @@
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
         <v>2.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.7</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.3</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2485,49 +2485,49 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
         <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
         <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.65</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I16" t="n">
         <v>6.2</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
@@ -2590,19 +2590,19 @@
         <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
         <v>22</v>
@@ -2623,13 +2623,13 @@
         <v>190</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>22</v>
@@ -2647,13 +2647,13 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>19.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
         <v>130</v>
@@ -2662,7 +2662,7 @@
         <v>10.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2716,28 +2716,28 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,34 +2746,34 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2794,10 +2794,10 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I18" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>3.85</v>
@@ -2851,28 +2851,28 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
         <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2890,19 +2890,19 @@
         <v>13.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
         <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
@@ -2914,7 +2914,7 @@
         <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>90</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
         <v>13</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G19" t="n">
         <v>5.3</v>
@@ -2971,13 +2971,13 @@
         <v>1.73</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T19" t="n">
         <v>1.79</v>
@@ -3019,28 +3019,28 @@
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3067,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G20" t="n">
         <v>5.8</v>
@@ -3106,13 +3106,13 @@
         <v>1.65</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J20" t="n">
         <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3130,19 +3130,19 @@
         <v>2.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3154,13 +3154,13 @@
         <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>27</v>
@@ -3172,10 +3172,10 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
         <v>30</v>
@@ -3184,25 +3184,25 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>6.4</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3256,7 +3256,7 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -3265,19 +3265,19 @@
         <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3289,16 +3289,16 @@
         <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>11.5</v>
@@ -3307,19 +3307,19 @@
         <v>32</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
         <v>9.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
@@ -3511,7 +3511,7 @@
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.15</v>
@@ -3526,10 +3526,10 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
         <v>1.58</v>
@@ -3541,7 +3541,7 @@
         <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
@@ -3568,10 +3568,10 @@
         <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
@@ -3592,7 +3592,7 @@
         <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
         <v>27</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3661,22 +3661,22 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
         <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3685,10 +3685,10 @@
         <v>1.79</v>
       </c>
       <c r="V24" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
@@ -3718,7 +3718,7 @@
         <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -3730,7 +3730,7 @@
         <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -1213,16 +1213,16 @@
         <v>1.21</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
         <v>3.2</v>
@@ -1252,7 +1252,7 @@
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1276,31 +1276,31 @@
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.4</v>
       </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
@@ -1375,7 +1375,7 @@
         <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1426,7 +1426,7 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
@@ -1435,7 +1435,7 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
         <v>2.72</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
         <v>1.84</v>
       </c>
       <c r="H12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J12" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.7</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
@@ -2155,16 +2155,16 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G15" t="n">
         <v>3.3</v>
@@ -2431,7 +2431,7 @@
         <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.85</v>
@@ -2458,7 +2458,7 @@
         <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
         <v>2.74</v>
@@ -2581,28 +2581,28 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
         <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>24</v>
@@ -2650,19 +2650,19 @@
         <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +2698,7 @@
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I17" t="n">
         <v>1.82</v>
@@ -2722,22 +2722,22 @@
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2773,10 +2773,10 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
@@ -2857,10 +2857,10 @@
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
@@ -2887,7 +2887,7 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>30</v>
@@ -2932,7 +2932,7 @@
         <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>5.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I19" t="n">
         <v>1.75</v>
@@ -3022,7 +3022,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>19.5</v>
@@ -3031,7 +3031,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
         <v>9.800000000000001</v>
@@ -3106,7 +3106,7 @@
         <v>1.65</v>
       </c>
       <c r="I20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J20" t="n">
         <v>4.4</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>5.5</v>
@@ -3127,22 +3127,22 @@
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q20" t="n">
         <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
         <v>27</v>
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>980</v>
@@ -3202,7 +3202,7 @@
         <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3265,7 +3265,7 @@
         <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3274,10 +3274,10 @@
         <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3289,13 +3289,13 @@
         <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB21" t="n">
         <v>8.6</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q22" t="n">
         <v>2.26</v>
@@ -3511,10 +3511,10 @@
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3544,13 +3544,13 @@
         <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
         <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.96</v>
@@ -3559,43 +3559,43 @@
         <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
         <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
         <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
         <v>60</v>
@@ -3640,13 +3640,13 @@
         <v>2.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
         <v>2.78</v>
@@ -3676,10 +3676,10 @@
         <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
         <v>1.79</v>
@@ -3688,7 +3688,7 @@
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>15.5</v>
@@ -685,100 +685,100 @@
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trans Narva</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1090,100 +1090,100 @@
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Tallinna FC Flora</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Trans Narva</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.2</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>1.07</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,22 +1273,22 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,19 +1297,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>16.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>18.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>9.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.2</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>70</v>
-      </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.86</v>
       </c>
       <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>2.14</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,37 +2003,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.3</v>
       </c>
-      <c r="I12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
         <v>2.38</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>2.34</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,28 +2581,28 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>22</v>
       </c>
-      <c r="Z16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>1.64</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.82</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH17" t="n">
         <v>22</v>
       </c>
-      <c r="AB17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE18" t="n">
         <v>17</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>25</v>
-      </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -2953,61 +2953,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="G19" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.75</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,58 +3016,58 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA19" t="n">
         <v>23</v>
       </c>
-      <c r="Y19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
         <v>70</v>
       </c>
-      <c r="AN20" t="n">
-        <v>980</v>
-      </c>
       <c r="AO20" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3223,61 +3223,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.66</v>
       </c>
-      <c r="H21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2.48</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH21" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AI21" t="n">
         <v>27</v>
       </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="H22" t="n">
-        <v>1.76</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>1.76</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,125 +3623,260 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.04</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.51</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.46</v>
       </c>
       <c r="P24" t="n">
         <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD25" t="n">
         <v>22</v>
       </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>13</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH25" t="n">
         <v>24</v>
       </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>34</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK25" t="n">
         <v>34</v>
       </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
         <v>200</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN25" t="n">
         <v>32</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
         <v>1.33</v>
@@ -676,19 +676,19 @@
         <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>3.55</v>
@@ -715,7 +715,7 @@
         <v>1.52</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
@@ -739,10 +739,10 @@
         <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AF2" t="n">
         <v>6.6</v>
@@ -754,7 +754,7 @@
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.4</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -973,7 +973,7 @@
         <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
         <v>1.39</v>
@@ -1210,16 +1210,16 @@
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1372,7 +1372,7 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.42</v>
@@ -1381,19 +1381,19 @@
         <v>1.89</v>
       </c>
       <c r="S7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
         <v>42</v>
@@ -1414,34 +1414,34 @@
         <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
         <v>3.2</v>
@@ -1480,10 +1480,10 @@
         <v>2.86</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
         <v>2.9</v>
@@ -1495,10 +1495,10 @@
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>3.25</v>
@@ -1525,22 +1525,22 @@
         <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="n">
         <v>9.800000000000001</v>
@@ -1549,46 +1549,46 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
         <v>38</v>
       </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>980</v>
-      </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J9" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.56</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="H14" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>980</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>1.27</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
         <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
         <v>30</v>
       </c>
-      <c r="AB16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>26</v>
       </c>
-      <c r="AG16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.64</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.65</v>
       </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
         <v>19</v>
       </c>
-      <c r="Y17" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
         <v>55</v>
       </c>
-      <c r="AA17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>990</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.65</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.99</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
       <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>18</v>
       </c>
-      <c r="AI19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>55</v>
-      </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO19" t="n">
         <v>60</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>18</v>
       </c>
-      <c r="AB20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.64</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
         <v>21</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG22" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15.5</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>1.76</v>
+        <v>6.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,260 +3623,1205 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>5.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>5.6</v>
       </c>
       <c r="H24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J24" t="n">
         <v>4.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.62</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.21</v>
       </c>
-      <c r="S24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X24" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>160</v>
+        <v>17.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>100</v>
+        <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AO24" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Atletico Huila</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="F32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>5.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.55</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>1.51</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M32" t="n">
         <v>1.09</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N32" t="n">
         <v>2.72</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O32" t="n">
         <v>1.46</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P32" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q32" t="n">
         <v>2.36</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R32" t="n">
         <v>1.21</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S32" t="n">
         <v>4.2</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.79</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V32" t="n">
         <v>1.23</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="W32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X32" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y32" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z32" t="n">
         <v>36</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA32" t="n">
         <v>130</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB32" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC32" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD32" t="n">
         <v>22</v>
       </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
         <v>13</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG32" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH32" t="n">
         <v>24</v>
       </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>34</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK32" t="n">
         <v>34</v>
       </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
         <v>200</v>
       </c>
-      <c r="AN25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AN32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO32" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1096,28 +1096,28 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="O5" t="n">
         <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G6" t="n">
         <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,16 +1348,16 @@
         <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K7" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.23</v>
@@ -1378,7 +1378,7 @@
         <v>1.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
         <v>2.04</v>
@@ -1390,7 +1390,7 @@
         <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
         <v>5.6</v>
@@ -1486,7 +1486,7 @@
         <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1501,13 +1501,13 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.3</v>
@@ -1516,13 +1516,13 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
         <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.52</v>
@@ -1543,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
@@ -1564,10 +1564,10 @@
         <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
         <v>36</v>
@@ -1618,7 +1618,7 @@
         <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I9" t="n">
         <v>2.74</v>
@@ -1627,7 +1627,7 @@
         <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -1654,10 +1654,10 @@
         <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
         <v>1.01</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>3.95</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,76 +1771,76 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="I11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>5.7</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,28 +2041,28 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
         <v>1.01</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,28 +2176,28 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.09</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>980</v>
+        <v>2.34</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.27</v>
+        <v>2.54</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.03</v>
       </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
         <v>1.03</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.01</v>
       </c>
       <c r="V14" t="n">
         <v>1.01</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,118 +2548,118 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.03</v>
       </c>
-      <c r="N16" t="n">
+      <c r="U16" t="n">
         <v>1.03</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2683,25 +2683,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
@@ -2716,94 +2716,94 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>1.02</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z17" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
         <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>1.86</v>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.04</v>
+        <v>1.09</v>
       </c>
       <c r="I18" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,94 +2986,94 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
         <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
         <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,111 +3083,111 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3196,19 +3196,19 @@
         <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.3</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>1.84</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
         <v>4.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
         <v>19</v>
       </c>
-      <c r="Y22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM22" t="n">
         <v>100</v>
       </c>
-      <c r="AB22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.64</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>1.56</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="W24" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.33</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.32</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.23</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H26" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.34</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P26" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
         <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG26" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="n">
         <v>15.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -4033,109 +4033,109 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="I27" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.21</v>
       </c>
-      <c r="P27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z27" t="n">
         <v>12</v>
       </c>
-      <c r="Z27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD27" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
@@ -4144,10 +4144,10 @@
         <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="I28" t="n">
-        <v>2.36</v>
+        <v>1.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.23</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG28" t="n">
         <v>20</v>
       </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14</v>
-      </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>1.64</v>
       </c>
       <c r="H29" t="n">
-        <v>1.97</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.99</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>2.56</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
         <v>22</v>
       </c>
-      <c r="AB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF29" t="n">
         <v>10</v>
       </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL29" t="n">
         <v>32</v>
       </c>
-      <c r="AG29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>55</v>
-      </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>50</v>
+        <v>7.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y30" t="n">
         <v>11.5</v>
       </c>
-      <c r="J30" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,260 +4568,665 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.06</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>2.36</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>5.4</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="W31" t="n">
-        <v>1.94</v>
+        <v>1.43</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="AB31" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI31" t="n">
         <v>30</v>
       </c>
-      <c r="AI31" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>160</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Atletico Huila</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F35" t="n">
         <v>2.06</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
-      <c r="I32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="I35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.55</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>1.51</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M35" t="n">
         <v>1.09</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N35" t="n">
         <v>2.72</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O35" t="n">
         <v>1.46</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P35" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q35" t="n">
         <v>2.36</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R35" t="n">
         <v>1.21</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S35" t="n">
         <v>4.2</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T35" t="n">
         <v>2</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U35" t="n">
         <v>1.79</v>
       </c>
-      <c r="V32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="V35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X35" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y35" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z35" t="n">
         <v>36</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA35" t="n">
         <v>130</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB35" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC35" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD35" t="n">
         <v>22</v>
       </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
         <v>13</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG35" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AH35" t="n">
         <v>24</v>
       </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>34</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AK35" t="n">
         <v>34</v>
       </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM32" t="n">
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
         <v>200</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AN35" t="n">
         <v>27</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AO35" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
         <v>5.3</v>
@@ -700,13 +700,13 @@
         <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
         <v>2.66</v>
@@ -973,7 +973,7 @@
         <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
         <v>1.39</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O5" t="n">
         <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
         <v>1.16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
         <v>1.69</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.46</v>
+        <v>1.43</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.21</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
         <v>17</v>
       </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
         <v>38</v>
       </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>1.21</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN8" t="n">
         <v>3.2</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>38</v>
-      </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1642,10 +1642,10 @@
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
         <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1774,10 +1774,10 @@
         <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
         <v>2.12</v>
@@ -1789,16 +1789,16 @@
         <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1807,7 +1807,7 @@
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,10 +1912,10 @@
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -2020,16 +2020,16 @@
         <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2047,7 +2047,7 @@
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q12" t="n">
         <v>2.24</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.6</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.56</v>
-      </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,7 +2182,7 @@
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
         <v>2.24</v>
@@ -2293,16 +2293,16 @@
         <v>2.34</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,7 +2317,7 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
         <v>1.01</v>
@@ -2434,7 +2434,7 @@
         <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
         <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2587,7 +2587,7 @@
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
         <v>1.95</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="H18" t="n">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
       <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
         <v>980</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -2953,118 +2953,118 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
         <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
         <v>23</v>
       </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.64</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>1.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.43</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
         <v>34</v>
       </c>
-      <c r="Y20" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>65</v>
-      </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
         <v>4.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>2.44</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
         <v>1.84</v>
@@ -3409,37 +3409,37 @@
         <v>2.62</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
         <v>2.18</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
         <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>60</v>
@@ -3454,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>19.5</v>
@@ -3466,13 +3466,13 @@
         <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
         <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3508,16 +3508,16 @@
         <v>2.16</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,31 +3526,31 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
         <v>1.86</v>
@@ -3565,7 +3565,7 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>14.5</v>
@@ -3574,7 +3574,7 @@
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
         <v>46</v>
@@ -3586,7 +3586,7 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
@@ -3595,16 +3595,16 @@
         <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
         <v>3.8</v>
@@ -3658,31 +3658,31 @@
         <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
         <v>1.68</v>
@@ -3691,58 +3691,58 @@
         <v>1.35</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
         <v>3.95</v>
@@ -3796,13 +3796,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
         <v>1.98</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="G26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.65</v>
       </c>
-      <c r="H26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>2.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>200</v>
+        <v>18.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>22</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>140</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.5</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
-        <v>5.6</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
-        <v>1.67</v>
+        <v>6.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.68</v>
+        <v>6.8</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.46</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>2.46</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>1.21</v>
+        <v>2.52</v>
       </c>
       <c r="X27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
         <v>24</v>
       </c>
-      <c r="Y27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AE27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK27" t="n">
         <v>17</v>
       </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>60</v>
-      </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="I28" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4210,7 +4210,7 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R28" t="n">
         <v>1.47</v>
@@ -4222,31 +4222,31 @@
         <v>1.81</v>
       </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X28" t="n">
         <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>9.6</v>
@@ -4267,22 +4267,22 @@
         <v>32</v>
       </c>
       <c r="AJ28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.62</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="I29" t="n">
-        <v>6.2</v>
+        <v>1.99</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.76</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK29" t="n">
         <v>50</v>
       </c>
-      <c r="AA29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>1.78</v>
+        <v>5.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1.79</v>
+        <v>6.2</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
-        <v>2.26</v>
+        <v>1.19</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>2.56</v>
       </c>
       <c r="X30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
         <v>22</v>
       </c>
-      <c r="Y30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>44</v>
+        <v>7.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>8.199999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G31" t="n">
         <v>3.3</v>
@@ -4612,10 +4612,10 @@
         <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
         <v>1.55</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="G32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J32" t="n">
         <v>4.4</v>
       </c>
-      <c r="H32" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="U32" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="W32" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="X32" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="n">
         <v>10</v>
       </c>
-      <c r="Z32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AG32" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AH32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AJ32" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL32" t="n">
         <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO32" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4900,10 +4900,10 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,22 +4990,22 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5038,7 +5038,7 @@
         <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X34" t="n">
         <v>9.199999999999999</v>
@@ -5122,40 +5122,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
@@ -5164,16 +5164,16 @@
         <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U35" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.79</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.73</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -5182,13 +5182,13 @@
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>130</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC35" t="n">
         <v>7.8</v>
@@ -5218,7 +5218,7 @@
         <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>200</v>
@@ -5228,6 +5228,276 @@
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X36" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,13 +673,13 @@
         <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>3.55</v>
@@ -736,7 +736,7 @@
         <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD2" t="n">
         <v>980</v>
@@ -763,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>480</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -967,13 +967,13 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
         <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>1.39</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>1.26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>1.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,78 +1463,78 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>8.4</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6</v>
+        <v>1.24</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,43 +1543,43 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.06</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>2.84</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.08</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1873,55 +1873,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>2.06</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,16 +2047,16 @@
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2074,7 +2074,7 @@
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,16 +2182,16 @@
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>2.34</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,16 +2317,16 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.5</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,16 +2452,16 @@
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.03</v>
@@ -2543,123 +2543,123 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.75</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,60 +2678,60 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.86</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2740,10 +2740,10 @@
         <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.64</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.54</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AM19" t="n">
         <v>65</v>
       </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AN19" t="n">
         <v>16</v>
       </c>
-      <c r="AD19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>10</v>
-      </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
         <v>19</v>
       </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.82</v>
       </c>
       <c r="I21" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>980</v>
       </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>90</v>
-      </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="G22" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="S22" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD22" t="n">
         <v>25</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>60</v>
       </c>
       <c r="AF22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>13</v>
       </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
         <v>3.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="n">
         <v>55</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="G24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.8</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.33</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>1.72</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="T25" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="n">
         <v>85</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.78</v>
       </c>
-      <c r="I26" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.68</v>
       </c>
-      <c r="U26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.26</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
         <v>55</v>
       </c>
       <c r="AL26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
         <v>55</v>
       </c>
-      <c r="AM26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>44</v>
-      </c>
       <c r="AO26" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="H27" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>1.84</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>1.97</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>20</v>
       </c>
       <c r="Z27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.2</v>
+        <v>1.64</v>
       </c>
       <c r="G28" t="n">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>1.69</v>
+        <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.71</v>
+        <v>6.8</v>
       </c>
       <c r="J28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.3</v>
       </c>
-      <c r="K28" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>2.38</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>2.52</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
-        <v>17.5</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>16.5</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="n">
         <v>140</v>
       </c>
-      <c r="AK28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>100</v>
-      </c>
       <c r="AN28" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="G29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.4</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE29" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
       <c r="AF29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI29" t="n">
         <v>32</v>
       </c>
-      <c r="AG29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.63</v>
+        <v>4.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>1.98</v>
       </c>
       <c r="I30" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK30" t="n">
         <v>50</v>
       </c>
-      <c r="AA30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.32</v>
+        <v>1.78</v>
       </c>
       <c r="I31" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T31" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK31" t="n">
         <v>55</v>
       </c>
-      <c r="AK31" t="n">
-        <v>32</v>
-      </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4708,25 +4708,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.5</v>
+        <v>1.61</v>
       </c>
       <c r="G32" t="n">
-        <v>5.7</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>1.67</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.69</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
         <v>4.4</v>
@@ -4735,100 +4735,100 @@
         <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W32" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.21</v>
-      </c>
       <c r="X32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD32" t="n">
         <v>23</v>
       </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AE32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="n">
         <v>10</v>
       </c>
-      <c r="AD32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>15</v>
       </c>
-      <c r="AF32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>130</v>
-      </c>
       <c r="AK32" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>48</v>
+        <v>7.8</v>
       </c>
       <c r="AO32" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.75</v>
       </c>
-      <c r="I33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K33" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>4.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="S33" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="T33" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>1.03</v>
+        <v>2.56</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.04</v>
+        <v>5.7</v>
       </c>
       <c r="H34" t="n">
-        <v>4.7</v>
+        <v>1.68</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.62</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="S34" t="n">
-        <v>5.4</v>
+        <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.96</v>
+        <v>1.21</v>
       </c>
       <c r="X34" t="n">
-        <v>9.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>130</v>
       </c>
-      <c r="AB34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>25</v>
-      </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,123 +5108,123 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="G35" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>1.44</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="T35" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,260 +5243,530 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.31</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="I36" t="n">
-        <v>12.5</v>
+        <v>5.1</v>
       </c>
       <c r="J36" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>5.1</v>
+        <v>2.68</v>
       </c>
       <c r="O36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.2</v>
       </c>
-      <c r="P36" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S36" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U36" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>3.7</v>
+        <v>1.94</v>
       </c>
       <c r="X36" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y36" t="n">
         <v>980</v>
       </c>
       <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
         <v>130</v>
       </c>
-      <c r="AA36" t="n">
-        <v>510</v>
-      </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AN36" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X38" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Necaxa</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G39" t="n">
         <v>3.9</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>2.04</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="I39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.75</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K39" t="n">
         <v>4.2</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
         <v>1.05</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N39" t="n">
         <v>4.6</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O39" t="n">
         <v>1.22</v>
       </c>
-      <c r="P37" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="P39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.65</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R39" t="n">
         <v>1.5</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S39" t="n">
         <v>2.68</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="T39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U39" t="n">
         <v>2.34</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="V39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.34</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X39" t="n">
         <v>22</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y39" t="n">
         <v>13</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z39" t="n">
         <v>16</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA39" t="n">
         <v>980</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB39" t="n">
         <v>980</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC39" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AD39" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AE39" t="n">
         <v>24</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF39" t="n">
         <v>980</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AG39" t="n">
         <v>980</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AH39" t="n">
         <v>980</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AI39" t="n">
         <v>980</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AJ39" t="n">
         <v>65</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AK39" t="n">
         <v>980</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AL39" t="n">
         <v>980</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AM39" t="n">
         <v>70</v>
       </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
         <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
@@ -685,10 +685,10 @@
         <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.55</v>
@@ -709,10 +709,10 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="V2" t="n">
         <v>1.05</v>
@@ -724,7 +724,7 @@
         <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="n">
         <v>210</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
         <v>16.5</v>
@@ -742,34 +742,34 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1096,16 +1096,16 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.34</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.09</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.43</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1246,7 +1246,7 @@
         <v>1.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1258,7 +1258,7 @@
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.04</v>
       </c>
-      <c r="G7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N7" t="n">
-        <v>1.26</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2</v>
+        <v>2.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>2.76</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>2.92</v>
       </c>
       <c r="H9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z9" t="n">
         <v>17</v>
       </c>
-      <c r="I9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>240</v>
-      </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
         <v>13</v>
       </c>
-      <c r="AC9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>70</v>
-      </c>
       <c r="AE9" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
         <v>38</v>
       </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>17.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>18.5</v>
       </c>
       <c r="J10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.25</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>5.8</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK10" t="n">
         <v>13</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AL10" t="n">
         <v>36</v>
       </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>3.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,72 +1868,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="G11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.6</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2008,55 +2008,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2074,7 +2074,7 @@
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2143,34 +2143,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2182,16 +2182,16 @@
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2209,7 +2209,7 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2278,34 +2278,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2317,16 +2317,16 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2413,100 +2413,100 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.64</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.1</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P15" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2548,118 +2548,118 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.01</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2683,34 +2683,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.75</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2722,16 +2722,16 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2813,39 +2813,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2857,16 +2857,16 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.03</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.01</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="T20" t="n">
         <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.36</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.4</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>3.85</v>
+        <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>2.14</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.42</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>2.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>2.34</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
         <v>85</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AN23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO23" t="n">
         <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="24">
@@ -3628,118 +3628,118 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>32</v>
       </c>
-      <c r="AA24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>980</v>
       </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK24" t="n">
         <v>55</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>21</v>
-      </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
         <v>980</v>
@@ -3763,34 +3763,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -3799,91 +3799,91 @@
         <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
         <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
         <v>2.64</v>
       </c>
       <c r="T25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN25" t="n">
         <v>12</v>
       </c>
-      <c r="AD25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>9</v>
-      </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>1.76</v>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>2.22</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="AA26" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>65</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -4033,55 +4033,55 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>2.34</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
         <v>1.03</v>
@@ -4090,61 +4090,61 @@
         <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="W27" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.8</v>
+        <v>1.61</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.3</v>
+        <v>1.63</v>
       </c>
       <c r="G29" t="n">
-        <v>5.4</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>1.72</v>
+        <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.3</v>
       </c>
-      <c r="K29" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>2.36</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.22</v>
+        <v>2.52</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.5</v>
+        <v>190</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
-        <v>16.5</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J30" t="n">
         <v>4.2</v>
       </c>
-      <c r="G30" t="n">
+      <c r="K30" t="n">
         <v>4.4</v>
       </c>
-      <c r="H30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z30" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z30" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI30" t="n">
         <v>32</v>
       </c>
-      <c r="AG30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK30" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AO30" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="I31" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
         <v>4.4</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.3</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="S31" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="V31" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="W31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X31" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
         <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG31" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL31" t="n">
         <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.61</v>
+        <v>4.9</v>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>5.1</v>
       </c>
       <c r="H32" t="n">
-        <v>6.2</v>
+        <v>1.76</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>1.77</v>
       </c>
       <c r="J32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.4</v>
       </c>
-      <c r="K32" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U32" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>2.28</v>
       </c>
       <c r="W32" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="X32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK32" t="n">
         <v>55</v>
       </c>
-      <c r="AA32" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="AL32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM32" t="n">
         <v>75</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>110</v>
-      </c>
       <c r="AN32" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>1.61</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>2.32</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.34</v>
+        <v>6.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="X33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH33" t="n">
         <v>20</v>
       </c>
-      <c r="Y33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AI33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>15</v>
       </c>
-      <c r="AI33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>55</v>
-      </c>
       <c r="AK33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL33" t="n">
         <v>32</v>
       </c>
-      <c r="AL33" t="n">
-        <v>38</v>
-      </c>
       <c r="AM33" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AO33" t="n">
-        <v>13.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.7</v>
+        <v>2.32</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="T34" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="V34" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="W34" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
         <v>15</v>
       </c>
-      <c r="AF34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17</v>
-      </c>
       <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN34" t="n">
         <v>25</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>48</v>
-      </c>
       <c r="AO34" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.64</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S35" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T35" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="U35" t="n">
-        <v>1.03</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>2.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.91</v>
+        <v>1.21</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="O36" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="R36" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S36" t="n">
-        <v>5.4</v>
+        <v>2.24</v>
       </c>
       <c r="T36" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U36" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="V36" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="X36" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="G37" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I37" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
         <v>2.76</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P37" t="n">
         <v>1.59</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="R37" t="n">
         <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T37" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
         <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="X37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>13</v>
-      </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.31</v>
+        <v>2.06</v>
       </c>
       <c r="G38" t="n">
-        <v>1.37</v>
+        <v>2.22</v>
       </c>
       <c r="H38" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>5.1</v>
+        <v>2.76</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>2.42</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U38" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>3.7</v>
+        <v>1.81</v>
       </c>
       <c r="X38" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM38" t="n">
         <v>210</v>
       </c>
-      <c r="AF38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>180</v>
-      </c>
       <c r="AN38" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5653,121 +5653,256 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.4</v>
+        <v>1.32</v>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>1.37</v>
       </c>
       <c r="H39" t="n">
-        <v>2.04</v>
+        <v>10.5</v>
       </c>
       <c r="I39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S39" t="n">
         <v>2.22</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.68</v>
-      </c>
       <c r="T39" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.09</v>
       </c>
       <c r="W39" t="n">
-        <v>1.34</v>
+        <v>3.7</v>
       </c>
       <c r="X39" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="AA39" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD39" t="n">
         <v>980</v>
       </c>
-      <c r="AB39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE39" t="n">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
         <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ39" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL39" t="n">
         <v>980</v>
       </c>
       <c r="AM39" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X40" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y40" t="n">
         <v>13</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H2" t="n">
         <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>5.4</v>
@@ -697,7 +697,7 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
@@ -706,7 +706,7 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>2.68</v>
@@ -715,7 +715,7 @@
         <v>1.51</v>
       </c>
       <c r="V2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,22 +1006,22 @@
         <v>7.2</v>
       </c>
       <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>60</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>1.16</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,61 +1120,61 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,118 +1207,118 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
         <v>2.52</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,72 +1328,72 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SFC Opava</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>1.81</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.76</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>2.26</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1468,67 +1468,67 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FK Pribram</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.81</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>2.92</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>1.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1777,37 +1777,37 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.04</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
         <v>65</v>
       </c>
       <c r="Z10" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1822,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF10" t="n">
         <v>9</v>
@@ -1834,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.6</v>
@@ -1846,10 +1846,10 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>7.8</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,75 +2003,75 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.92</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.1</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
         <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2278,73 +2278,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,10 +2368,10 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2413,100 +2413,100 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
       </c>
       <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.1</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.64</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,100 +2548,100 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>2.34</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2683,34 +2683,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2722,22 +2722,22 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
@@ -2746,10 +2746,10 @@
         <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.45</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.92</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2948,114 +2948,114 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.75</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3067,13 +3067,13 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.01</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="I21" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.32</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>23</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
         <v>11</v>
       </c>
-      <c r="AD22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>18</v>
-      </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>1.74</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="n">
         <v>25</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AL23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM23" t="n">
         <v>70</v>
       </c>
-      <c r="AF23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>85</v>
-      </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="G24" t="n">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.16</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.42</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>2.24</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL24" t="n">
         <v>32</v>
       </c>
-      <c r="AF24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
         <v>80</v>
       </c>
-      <c r="AK24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>120</v>
-      </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -3763,118 +3763,118 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="V25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.35</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
         <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
         <v>980</v>
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.27</v>
@@ -3934,91 +3934,91 @@
         <v>4.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q26" t="n">
         <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T26" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>24</v>
       </c>
-      <c r="Z26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>22</v>
       </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>21</v>
-      </c>
       <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO26" t="n">
         <v>36</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>2.14</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.58</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>2.24</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W27" t="n">
         <v>2.08</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4168,106 +4168,106 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
         <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="W28" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
@@ -4282,13 +4282,13 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF29" t="n">
         <v>14</v>
       </c>
-      <c r="Y29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9</v>
-      </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.2</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="n">
-        <v>5.3</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>1.73</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.75</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>1.23</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.5</v>
+        <v>200</v>
       </c>
       <c r="AB30" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
         <v>9.4</v>
       </c>
       <c r="AD30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN30" t="n">
         <v>9.6</v>
       </c>
-      <c r="AE30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>70</v>
-      </c>
       <c r="AO30" t="n">
-        <v>9.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J31" t="n">
         <v>4.2</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V31" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA31" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>22</v>
-      </c>
       <c r="AB31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE31" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>19</v>
-      </c>
       <c r="AF31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI31" t="n">
         <v>32</v>
       </c>
-      <c r="AG31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AK31" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G32" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="I32" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
         <v>4.4</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="S32" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="W32" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z32" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>12</v>
-      </c>
       <c r="AA32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB32" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB32" t="n">
-        <v>23</v>
-      </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE32" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
         <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="n">
         <v>55</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN32" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.61</v>
+        <v>4.8</v>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>1.79</v>
       </c>
       <c r="I33" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="V33" t="n">
-        <v>1.19</v>
+        <v>2.24</v>
       </c>
       <c r="W33" t="n">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>1.64</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="U34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W34" t="n">
         <v>2.54</v>
       </c>
-      <c r="V34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.41</v>
-      </c>
       <c r="X34" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AA34" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
-        <v>25</v>
+        <v>9.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AK34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>32</v>
       </c>
-      <c r="AL34" t="n">
-        <v>38</v>
-      </c>
       <c r="AM34" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO34" t="n">
-        <v>13.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="I35" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="J35" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="R35" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="S35" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T35" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U35" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="V35" t="n">
-        <v>2.44</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH35" t="n">
         <v>15</v>
       </c>
-      <c r="AF35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>17</v>
-      </c>
       <c r="AI35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN35" t="n">
         <v>25</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>50</v>
-      </c>
       <c r="AO35" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>5.2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.14</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>1.71</v>
       </c>
       <c r="I36" t="n">
-        <v>7.2</v>
+        <v>1.72</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO36" t="n">
         <v>7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.76</v>
+        <v>1.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="P37" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="S37" t="n">
-        <v>5.3</v>
+        <v>1.05</v>
       </c>
       <c r="T37" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="V37" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="X37" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.76</v>
+        <v>1.55</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>1.94</v>
       </c>
       <c r="T38" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,99 +5648,99 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="H39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
         <v>10.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X39" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>490</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -5749,159 +5749,429 @@
         <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ39" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK39" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.9</v>
+        <v>24</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Necaxa</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F42" t="n">
         <v>3.45</v>
       </c>
-      <c r="G40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="G42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I42" t="n">
         <v>2.2</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="J42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L42" t="n">
         <v>1.27</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M42" t="n">
         <v>1.04</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N42" t="n">
         <v>4.7</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O42" t="n">
         <v>1.22</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P42" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="Q42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.5</v>
       </c>
-      <c r="S40" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T40" t="n">
+      <c r="S42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.6</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U42" t="n">
         <v>2.32</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V42" t="n">
         <v>1.83</v>
       </c>
-      <c r="W40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X40" t="n">
+      <c r="W42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X42" t="n">
         <v>22</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD42" t="n">
         <v>13</v>
       </c>
-      <c r="Z40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AE42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI42" t="n">
         <v>32</v>
       </c>
-      <c r="AB40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF40" t="n">
+      <c r="AJ42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN42" t="n">
         <v>36</v>
       </c>
-      <c r="AG40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO40" t="n">
+      <c r="AO42" t="n">
         <v>14.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,13 +736,13 @@
         <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="n">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="AF2" t="n">
         <v>7.8</v>
@@ -751,10 +751,10 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="AJ2" t="n">
         <v>11.5</v>
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
         <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
         <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -955,7 +955,7 @@
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -979,13 +979,13 @@
         <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
@@ -1033,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.46</v>
@@ -1114,16 +1114,16 @@
         <v>2.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
         <v>27</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>36</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1219,7 +1219,7 @@
         <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>4.9</v>
@@ -1252,13 +1252,13 @@
         <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1328,72 +1328,72 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.81</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SFC Opava</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>1.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>2.36</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,67 +1603,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Pribram</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.86</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,19 +1681,19 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.22</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3.15</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>44</v>
-      </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.02</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,78 +2138,78 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.46</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2278,46 +2278,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.55</v>
       </c>
-      <c r="I14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="n">
         <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
         <v>2.24</v>
@@ -2326,25 +2326,25 @@
         <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,10 +2368,10 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2413,73 +2413,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.6</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.85</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.55</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,25 +2488,25 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2548,100 +2548,100 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.85</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,100 +2683,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>32</v>
       </c>
-      <c r="AF19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AK19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>24</v>
       </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3083,114 +3083,114 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="J20" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
@@ -3268,13 +3268,13 @@
         <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
         <v>2.56</v>
       </c>
       <c r="T21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
         <v>2.42</v>
@@ -3283,16 +3283,16 @@
         <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
         <v>55</v>
@@ -3304,16 +3304,16 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
@@ -3331,7 +3331,7 @@
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
         <v>18.5</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,109 +3358,109 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.96</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.03</v>
       </c>
-      <c r="N22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.58</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.66</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
         <v>19</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AG23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>29</v>
       </c>
-      <c r="AA23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AK23" t="n">
         <v>22</v>
       </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>25</v>
-      </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.68</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="G25" t="n">
-        <v>3.85</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06</v>
+        <v>980</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.6</v>
+        <v>1.58</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>2.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>3.95</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>11.5</v>
+        <v>48</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.35</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.9</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.26</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AB28" t="n">
         <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="n">
         <v>32</v>
       </c>
-      <c r="AF28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="X29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO29" t="n">
         <v>65</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>6.6</v>
+        <v>2.26</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>2.48</v>
       </c>
       <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T30" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="W30" t="n">
-        <v>2.58</v>
+        <v>1.36</v>
       </c>
       <c r="X30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
         <v>14</v>
       </c>
-      <c r="Y30" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8</v>
-      </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.3</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>5.4</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>1.72</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.73</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>17.5</v>
+        <v>100</v>
       </c>
       <c r="AB31" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.7</v>
+        <v>1.62</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>1.64</v>
       </c>
       <c r="H32" t="n">
-        <v>1.87</v>
+        <v>6.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.88</v>
+        <v>6.8</v>
       </c>
       <c r="J32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
         <v>3.9</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="R32" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="V32" t="n">
-        <v>2.12</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>1.26</v>
+        <v>2.58</v>
       </c>
       <c r="X32" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>19.5</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AE32" t="n">
-        <v>17.5</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL32" t="n">
         <v>36</v>
       </c>
-      <c r="AG32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>60</v>
-      </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>50</v>
+        <v>9.4</v>
       </c>
       <c r="AO32" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I33" t="n">
         <v>1.79</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.8</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U33" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
         <v>40</v>
       </c>
       <c r="AG33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="G34" t="n">
-        <v>1.65</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>1.86</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>1.88</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T34" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V34" t="n">
-        <v>1.19</v>
+        <v>2.12</v>
       </c>
       <c r="W34" t="n">
-        <v>2.54</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
         <v>18</v>
       </c>
       <c r="Y34" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AC34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD34" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.6</v>
+        <v>36</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>15.5</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.199999999999999</v>
+        <v>50</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.34</v>
+        <v>1.77</v>
       </c>
       <c r="I35" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="T35" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U35" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="V35" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="W35" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="X35" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH35" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>15</v>
-      </c>
       <c r="AI35" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK35" t="n">
         <v>55</v>
       </c>
-      <c r="AK35" t="n">
-        <v>32</v>
-      </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.2</v>
+        <v>1.62</v>
       </c>
       <c r="G36" t="n">
-        <v>5.3</v>
+        <v>1.63</v>
       </c>
       <c r="H36" t="n">
-        <v>1.71</v>
+        <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1.72</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
         <v>4.4</v>
       </c>
-      <c r="K36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="O36" t="n">
         <v>1.27</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.19</v>
       </c>
-      <c r="P36" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.23</v>
+        <v>2.6</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="AA36" t="n">
-        <v>18.5</v>
+        <v>170</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
         <v>10</v>
       </c>
       <c r="AD36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="n">
         <v>9.6</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AG36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>15</v>
       </c>
-      <c r="AF36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>120</v>
-      </c>
       <c r="AK36" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>46</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1.71</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.01</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>1.05</v>
+        <v>2.78</v>
       </c>
       <c r="T37" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="U37" t="n">
-        <v>1.03</v>
+        <v>2.56</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="W37" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.04</v>
+        <v>5.4</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.94</v>
+        <v>1.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>1.71</v>
       </c>
       <c r="J38" t="n">
-        <v>2.74</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>1.55</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>1.55</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G39" t="n">
         <v>2.02</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>2.78</v>
+        <v>1.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="S39" t="n">
-        <v>5.3</v>
+        <v>1.05</v>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X39" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,123 +5783,123 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>2.06</v>
       </c>
       <c r="G40" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K40" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>1.67</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="P40" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U40" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W40" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,260 +5918,530 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="G41" t="n">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="L41" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>5.2</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.59</v>
+        <v>2.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="U41" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="X41" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="AB41" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
         <v>10.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AL41" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>5.8</v>
+        <v>24</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X43" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Necaxa</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F44" t="n">
         <v>3.45</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G44" t="n">
         <v>3.8</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>2.06</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>2.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J44" t="n">
         <v>3.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K44" t="n">
         <v>4.1</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>1.27</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M44" t="n">
         <v>1.04</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N44" t="n">
         <v>4.7</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O44" t="n">
         <v>1.22</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P44" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R42" t="n">
+      <c r="Q44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.5</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S44" t="n">
         <v>2.7</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T44" t="n">
         <v>1.6</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U44" t="n">
         <v>2.32</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V44" t="n">
         <v>1.83</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W44" t="n">
         <v>1.36</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X44" t="n">
         <v>22</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y44" t="n">
         <v>15</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="Z44" t="n">
         <v>16</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AA44" t="n">
         <v>32</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB44" t="n">
         <v>21</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AC44" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AD44" t="n">
         <v>13</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AE44" t="n">
         <v>22</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF44" t="n">
         <v>34</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG44" t="n">
         <v>18</v>
       </c>
-      <c r="AH42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ42" t="n">
+      <c r="AH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>75</v>
       </c>
-      <c r="AK42" t="n">
+      <c r="AK44" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="n">
         <v>980</v>
       </c>
-      <c r="AL42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM42" t="n">
+      <c r="AM44" t="n">
         <v>85</v>
       </c>
-      <c r="AN42" t="n">
+      <c r="AN44" t="n">
         <v>36</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AO44" t="n">
         <v>14.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -676,16 +676,16 @@
         <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="J2" t="n">
         <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,13 +694,13 @@
         <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
@@ -709,67 +709,67 @@
         <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AE2" t="n">
         <v>490</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>360</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AM2" t="n">
         <v>430</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
         <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
         <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -961,13 +961,13 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
         <v>2.22</v>
@@ -985,13 +985,13 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>16.5</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>24</v>
@@ -1033,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
@@ -1138,28 +1138,28 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
         <v>18.5</v>
@@ -1168,10 +1168,10 @@
         <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>7.8</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
         <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>4.9</v>
@@ -1237,10 +1237,10 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
         <v>1.54</v>
@@ -1249,13 +1249,13 @@
         <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
         <v>2.66</v>
@@ -1264,13 +1264,13 @@
         <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
         <v>11.5</v>
@@ -1279,40 +1279,40 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
         <v>7.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
         <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.05</v>
@@ -1375,13 +1375,13 @@
         <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1477,79 +1477,79 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.84</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
@@ -1645,13 +1645,13 @@
         <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
@@ -1660,7 +1660,7 @@
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>2.66</v>
@@ -1678,22 +1678,22 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
         <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
         <v>1.74</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.23</v>
@@ -1918,31 +1918,31 @@
         <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,25 +1951,25 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ11" t="n">
         <v>9.4</v>
@@ -1981,10 +1981,10 @@
         <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
         <v>330</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
         <v>3.2</v>
@@ -2047,7 +2047,7 @@
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.28</v>
@@ -2059,10 +2059,10 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>1.61</v>
@@ -2071,7 +2071,7 @@
         <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2113,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
@@ -2152,28 +2152,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
         <v>2.66</v>
@@ -2182,34 +2182,34 @@
         <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2299,7 +2299,7 @@
         <v>2.46</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2347,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2362,16 +2362,16 @@
         <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.44</v>
@@ -2446,40 +2446,40 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
         <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2587,13 +2587,13 @@
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
         <v>3.6</v>
@@ -2611,7 +2611,7 @@
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>600</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="I17" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -2719,19 +2719,19 @@
         <v>2.72</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
         <v>2.02</v>
@@ -2740,7 +2740,7 @@
         <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
         <v>1.24</v>
@@ -2755,7 +2755,7 @@
         <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
         <v>13.5</v>
@@ -2779,13 +2779,13 @@
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.35</v>
@@ -2863,16 +2863,16 @@
         <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
         <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
@@ -2881,7 +2881,7 @@
         <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2962,52 +2962,52 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
         <v>1.01</v>
@@ -3022,7 +3022,7 @@
         <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3037,34 +3037,34 @@
         <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ19" t="n">
         <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.45</v>
@@ -3121,37 +3121,37 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
         <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10.5</v>
@@ -3160,16 +3160,16 @@
         <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
@@ -3181,7 +3181,7 @@
         <v>19.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
@@ -3193,16 +3193,16 @@
         <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.64</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
         <v>1.64</v>
@@ -3274,70 +3274,70 @@
         <v>2.56</v>
       </c>
       <c r="T21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.58</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.61</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AM21" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>2.88</v>
@@ -3397,22 +3397,22 @@
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
         <v>1.01</v>
@@ -3421,58 +3421,58 @@
         <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF22" t="n">
         <v>17</v>
       </c>
-      <c r="AE22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>20</v>
-      </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.26</v>
+        <v>1.47</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
@@ -3550,16 +3550,16 @@
         <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,34 +3568,34 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
@@ -3649,10 +3649,10 @@
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>1.27</v>
@@ -3667,7 +3667,7 @@
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
         <v>1.66</v>
@@ -3676,73 +3676,73 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
         <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AB24" t="n">
         <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>1.68</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
@@ -3808,7 +3808,7 @@
         <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
         <v>2.3</v>
@@ -3820,64 +3820,64 @@
         <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
         <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>16</v>
-      </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,46 +3907,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="G26" t="n">
-        <v>980</v>
+        <v>2.64</v>
       </c>
       <c r="H26" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
         <v>980</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
         <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T26" t="n">
         <v>1.03</v>
@@ -3955,10 +3955,10 @@
         <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G27" t="n">
         <v>3.95</v>
@@ -4060,34 +4060,34 @@
         <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
         <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
         <v>1.77</v>
       </c>
       <c r="U27" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
         <v>1.76</v>
@@ -4099,22 +4099,22 @@
         <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
         <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
@@ -4126,28 +4126,28 @@
         <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI27" t="n">
         <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AK27" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AL27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>220</v>
+      </c>
+      <c r="AO27" t="n">
         <v>55</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
         <v>2.06</v>
@@ -4186,13 +4186,13 @@
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J28" t="n">
         <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.27</v>
@@ -4204,28 +4204,28 @@
         <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S28" t="n">
         <v>2.64</v>
       </c>
       <c r="T28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
         <v>1.95</v>
@@ -4234,46 +4234,46 @@
         <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
         <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK28" t="n">
         <v>19</v>
       </c>
-      <c r="AI28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>20</v>
-      </c>
       <c r="AL28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
@@ -4321,7 +4321,7 @@
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.95</v>
@@ -4351,10 +4351,10 @@
         <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T29" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
@@ -4363,19 +4363,19 @@
         <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
@@ -4384,40 +4384,40 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -4453,10 +4453,10 @@
         <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I30" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4480,7 +4480,7 @@
         <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
@@ -4492,46 +4492,46 @@
         <v>1.91</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="W30" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,19 +4540,19 @@
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -4594,10 +4594,10 @@
         <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.46</v>
@@ -4630,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4642,22 +4642,22 @@
         <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AB31" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
         <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4666,25 +4666,25 @@
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK31" t="n">
         <v>70</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>34</v>
-      </c>
       <c r="AL31" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G32" t="n">
         <v>1.64</v>
       </c>
       <c r="H32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I32" t="n">
         <v>6.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.8</v>
       </c>
       <c r="J32" t="n">
         <v>4.2</v>
@@ -4735,61 +4735,61 @@
         <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
       </c>
       <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V32" t="n">
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB32" t="n">
         <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
         <v>100</v>
@@ -4807,7 +4807,7 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="n">
         <v>16.5</v>
@@ -4819,10 +4819,10 @@
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
         <v>1.78</v>
@@ -4870,22 +4870,22 @@
         <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R33" t="n">
         <v>1.45</v>
@@ -4894,7 +4894,7 @@
         <v>3.05</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U33" t="n">
         <v>2.16</v>
@@ -4909,10 +4909,10 @@
         <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA33" t="n">
         <v>18</v>
@@ -4936,13 +4936,13 @@
         <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI33" t="n">
         <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="n">
         <v>65</v>
@@ -4951,10 +4951,10 @@
         <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
         <v>9.6</v>
@@ -4990,10 +4990,10 @@
         <v>4.7</v>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I34" t="n">
         <v>1.88</v>
@@ -5014,25 +5014,25 @@
         <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
         <v>2.12</v>
@@ -5041,7 +5041,7 @@
         <v>1.26</v>
       </c>
       <c r="X34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5056,7 +5056,7 @@
         <v>19.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>9.800000000000001</v>
@@ -5068,31 +5068,31 @@
         <v>36</v>
       </c>
       <c r="AG34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH34" t="n">
         <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ34" t="n">
         <v>100</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="n">
         <v>50</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G35" t="n">
         <v>4.9</v>
       </c>
-      <c r="G35" t="n">
-        <v>5.1</v>
-      </c>
       <c r="H35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
@@ -5146,7 +5146,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
@@ -5155,7 +5155,7 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
         <v>1.6</v>
@@ -5170,10 +5170,10 @@
         <v>2.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X35" t="n">
         <v>21</v>
@@ -5182,10 +5182,10 @@
         <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
@@ -5218,7 +5218,7 @@
         <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
         <v>70</v>
@@ -5290,19 +5290,19 @@
         <v>2.18</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
         <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V36" t="n">
         <v>1.19</v>
@@ -5311,7 +5311,7 @@
         <v>2.6</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
         <v>22</v>
@@ -5320,13 +5320,13 @@
         <v>48</v>
       </c>
       <c r="AA36" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB36" t="n">
         <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
@@ -5362,7 +5362,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO36" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H37" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J37" t="n">
         <v>3.65</v>
@@ -5422,37 +5422,37 @@
         <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T37" t="n">
         <v>1.61</v>
       </c>
       <c r="U37" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W37" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
         <v>32</v>
@@ -5461,7 +5461,7 @@
         <v>16</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
         <v>11.5</v>
@@ -5476,7 +5476,7 @@
         <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI37" t="n">
         <v>30</v>
@@ -5497,7 +5497,7 @@
         <v>23</v>
       </c>
       <c r="AO37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38">
@@ -5551,13 +5551,13 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q38" t="n">
         <v>1.59</v>
@@ -5566,13 +5566,13 @@
         <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T38" t="n">
         <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V38" t="n">
         <v>2.4</v>
@@ -5581,7 +5581,7 @@
         <v>1.22</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y38" t="n">
         <v>12.5</v>
@@ -5590,7 +5590,7 @@
         <v>12.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB38" t="n">
         <v>26</v>
@@ -5608,7 +5608,7 @@
         <v>46</v>
       </c>
       <c r="AG38" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH38" t="n">
         <v>16.5</v>
@@ -5617,7 +5617,7 @@
         <v>25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="n">
         <v>55</v>
@@ -5626,10 +5626,10 @@
         <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO38" t="n">
         <v>7</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="G39" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,10 +5686,10 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1.1</v>
+        <v>2.56</v>
       </c>
       <c r="O39" t="n">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="P39" t="n">
         <v>1.25</v>
@@ -5710,10 +5710,10 @@
         <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W39" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5731,7 +5731,7 @@
         <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J40" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K40" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L40" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P40" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,10 +5845,10 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5866,7 +5866,7 @@
         <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
         <v>2.06</v>
@@ -5941,7 +5941,7 @@
         <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J41" t="n">
         <v>3.3</v>
@@ -5959,31 +5959,31 @@
         <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q41" t="n">
         <v>2.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
         <v>5.3</v>
       </c>
       <c r="T41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U41" t="n">
         <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X41" t="n">
         <v>9.199999999999999</v>
@@ -5995,10 +5995,10 @@
         <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC41" t="n">
         <v>7.6</v>
@@ -6007,7 +6007,7 @@
         <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF41" t="n">
         <v>10.5</v>
@@ -6016,28 +6016,28 @@
         <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI41" t="n">
         <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN41" t="n">
         <v>24</v>
       </c>
       <c r="AO41" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J42" t="n">
         <v>3.05</v>
@@ -6088,88 +6088,88 @@
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P42" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="Q42" t="n">
         <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="T42" t="n">
         <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G43" t="n">
         <v>1.35</v>
@@ -6211,7 +6211,7 @@
         <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J43" t="n">
         <v>5.7</v>
@@ -6220,13 +6220,13 @@
         <v>6.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.2</v>
@@ -6241,7 +6241,7 @@
         <v>1.59</v>
       </c>
       <c r="S43" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T43" t="n">
         <v>2</v>
@@ -6250,10 +6250,10 @@
         <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="X43" t="n">
         <v>32</v>
@@ -6265,7 +6265,7 @@
         <v>130</v>
       </c>
       <c r="AA43" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
@@ -6274,10 +6274,10 @@
         <v>16.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF43" t="n">
         <v>10.5</v>
@@ -6286,7 +6286,7 @@
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
         <v>160</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J44" t="n">
         <v>3.8</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>1.27</v>
@@ -6367,82 +6367,82 @@
         <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S44" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U44" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X44" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA44" t="n">
         <v>32</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD44" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD44" t="n">
-        <v>13</v>
-      </c>
       <c r="AE44" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF44" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK44" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>980</v>
       </c>
       <c r="AM44" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN44" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J2" t="n">
         <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
         <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>180</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>490</v>
@@ -757,7 +757,7 @@
         <v>360</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
         <v>1.63</v>
@@ -1090,34 +1090,34 @@
         <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
@@ -1141,7 +1141,7 @@
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>44</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1162,7 +1162,7 @@
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>18.5</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
         <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
@@ -1222,43 +1222,43 @@
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,13 +1288,13 @@
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH6" t="n">
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1306,13 +1306,13 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>7.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
         <v>48</v>
@@ -1543,10 +1543,10 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>55</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>1.77</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1828,16 +1828,16 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K11" t="n">
         <v>8</v>
       </c>
-      <c r="K11" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,28 +1912,28 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -1942,52 +1942,52 @@
         <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,43 +2035,43 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2083,7 +2083,7 @@
         <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2104,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
@@ -2119,10 +2119,10 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
         <v>2.66</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
         <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
         <v>40</v>
@@ -2248,7 +2248,7 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2290,88 +2290,88 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>1.28</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>900</v>
       </c>
       <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
         <v>14</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
         <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2557,103 +2557,103 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>2.84</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,79 +2692,79 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>600</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O17" t="n">
         <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>36</v>
@@ -2779,7 +2779,7 @@
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2827,80 +2827,80 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="n">
         <v>42</v>
       </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3040,7 +3040,7 @@
         <v>250</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3052,7 +3052,7 @@
         <v>350</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3067,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3103,73 +3103,73 @@
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
         <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15</v>
-      </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
@@ -3184,13 +3184,13 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
         <v>350</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="I21" t="n">
         <v>2.88</v>
@@ -3250,40 +3250,40 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.53</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
         <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
@@ -3295,13 +3295,13 @@
         <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>13.5</v>
@@ -3310,10 +3310,10 @@
         <v>85</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3325,19 +3325,19 @@
         <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,52 +3367,52 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
         <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
         <v>1.01</v>
@@ -3421,13 +3421,13 @@
         <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3463,7 +3463,7 @@
         <v>120</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="S23" t="n">
-        <v>1.47</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
         <v>1.59</v>
@@ -3688,7 +3688,7 @@
         <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3703,7 +3703,7 @@
         <v>280</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
         <v>9.6</v>
@@ -3733,10 +3733,10 @@
         <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
@@ -3790,7 +3790,7 @@
         <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3805,13 +3805,13 @@
         <v>2.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
         <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T25" t="n">
         <v>1.6</v>
@@ -3823,7 +3823,7 @@
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
         <v>80</v>
@@ -3838,7 +3838,7 @@
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
         <v>11.5</v>
@@ -3847,13 +3847,13 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -3862,13 +3862,13 @@
         <v>170</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
         <v>17.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
@@ -3907,46 +3907,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="K26" t="n">
-        <v>7.6</v>
+        <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>2.68</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="T26" t="n">
         <v>1.03</v>
@@ -3955,10 +3955,10 @@
         <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4060,22 +4060,22 @@
         <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
         <v>1.33</v>
@@ -4084,7 +4084,7 @@
         <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
@@ -4102,7 +4102,7 @@
         <v>29</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA27" t="n">
         <v>900</v>
@@ -4117,10 +4117,10 @@
         <v>40</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG27" t="n">
         <v>980</v>
@@ -4129,7 +4129,7 @@
         <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="n">
         <v>300</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>2.06</v>
@@ -4186,16 +4186,16 @@
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4210,13 +4210,13 @@
         <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
@@ -4225,34 +4225,34 @@
         <v>2.34</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
         <v>1.95</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="AB28" t="n">
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AF28" t="n">
         <v>14.5</v>
@@ -4273,7 +4273,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
@@ -4282,7 +4282,7 @@
         <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4312,82 +4312,82 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
         <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA29" t="n">
         <v>530</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="n">
         <v>13.5</v>
@@ -4396,16 +4396,16 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>65</v>
@@ -4414,7 +4414,7 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AO29" t="n">
         <v>260</v>
@@ -4447,85 +4447,85 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
         <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
         <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB30" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
         <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
@@ -4534,13 +4534,13 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="n">
         <v>170</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,40 +4582,40 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>1.27</v>
@@ -4630,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4666,7 +4666,7 @@
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
         <v>350</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.63</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.64</v>
       </c>
       <c r="H32" t="n">
         <v>6.4</v>
@@ -4729,19 +4729,19 @@
         <v>6.6</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
@@ -4750,10 +4750,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
         <v>3.5</v>
@@ -4768,13 +4768,13 @@
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X32" t="n">
         <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
         <v>50</v>
@@ -4792,7 +4792,7 @@
         <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
         <v>8.800000000000001</v>
@@ -4804,7 +4804,7 @@
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
         <v>15</v>
@@ -4822,7 +4822,7 @@
         <v>9.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -4858,106 +4858,106 @@
         <v>5.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="n">
         <v>4</v>
       </c>
-      <c r="K33" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S33" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W33" t="n">
         <v>1.23</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB33" t="n">
         <v>18.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>10</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF33" t="n">
         <v>40</v>
       </c>
       <c r="AG33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>19</v>
       </c>
-      <c r="AH33" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
         <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="34">
@@ -4990,10 +4990,10 @@
         <v>4.7</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I34" t="n">
         <v>1.88</v>
@@ -5005,46 +5005,46 @@
         <v>3.95</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V34" t="n">
         <v>2.12</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
@@ -5053,10 +5053,10 @@
         <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
         <v>9.800000000000001</v>
@@ -5068,31 +5068,31 @@
         <v>36</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>1.78</v>
@@ -5140,7 +5140,7 @@
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5161,13 +5161,13 @@
         <v>1.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T35" t="n">
         <v>1.65</v>
       </c>
       <c r="U35" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
         <v>2.26</v>
@@ -5176,7 +5176,7 @@
         <v>1.25</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
         <v>12</v>
@@ -5194,10 +5194,10 @@
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
         <v>40</v>
@@ -5257,31 +5257,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
         <v>6.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>6.4</v>
-      </c>
       <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.5</v>
       </c>
-      <c r="K36" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.27</v>
@@ -5308,25 +5308,25 @@
         <v>1.19</v>
       </c>
       <c r="W36" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
         <v>48</v>
       </c>
       <c r="AA36" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB36" t="n">
         <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
@@ -5335,7 +5335,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG36" t="n">
         <v>9.800000000000001</v>
@@ -5359,7 +5359,7 @@
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO36" t="n">
         <v>85</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I37" t="n">
         <v>2.44</v>
@@ -5416,7 +5416,7 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
         <v>1.23</v>
@@ -5425,13 +5425,13 @@
         <v>2.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T37" t="n">
         <v>1.61</v>
@@ -5443,10 +5443,10 @@
         <v>1.69</v>
       </c>
       <c r="W37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y37" t="n">
         <v>13.5</v>
@@ -5476,25 +5476,25 @@
         <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI37" t="n">
         <v>30</v>
       </c>
       <c r="AJ37" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK37" t="n">
         <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO37" t="n">
         <v>14.5</v>
@@ -5533,10 +5533,10 @@
         <v>5.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I38" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
         <v>4.3</v>
@@ -5545,13 +5545,13 @@
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.19</v>
@@ -5563,7 +5563,7 @@
         <v>1.59</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S38" t="n">
         <v>2.46</v>
@@ -5575,13 +5575,13 @@
         <v>2.5</v>
       </c>
       <c r="V38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
         <v>1.22</v>
       </c>
       <c r="X38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
         <v>12.5</v>
@@ -5599,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -5611,7 +5611,7 @@
         <v>19.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI38" t="n">
         <v>25</v>
@@ -5662,43 +5662,43 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2.56</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.01</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S39" t="n">
         <v>1.05</v>
@@ -5710,10 +5710,10 @@
         <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J40" t="n">
         <v>2.84</v>
       </c>
       <c r="K40" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.33</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.05</v>
-      </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S40" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,10 +5845,10 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5938,7 +5938,7 @@
         <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I41" t="n">
         <v>4.9</v>
@@ -5947,7 +5947,7 @@
         <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.56</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
@@ -5971,7 +5971,7 @@
         <v>1.2</v>
       </c>
       <c r="S41" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T41" t="n">
         <v>2.2</v>
@@ -5980,7 +5980,7 @@
         <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
         <v>1.94</v>
@@ -6004,7 +6004,7 @@
         <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
         <v>85</v>
@@ -6013,7 +6013,7 @@
         <v>10.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
         <v>44</v>
@@ -6025,7 +6025,7 @@
         <v>24</v>
       </c>
       <c r="AK41" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AL41" t="n">
         <v>60</v>
@@ -6034,7 +6034,7 @@
         <v>240</v>
       </c>
       <c r="AN41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO41" t="n">
         <v>130</v>
@@ -6070,7 +6070,7 @@
         <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>4.3</v>
@@ -6085,10 +6085,10 @@
         <v>3.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N42" t="n">
         <v>2.68</v>
@@ -6097,13 +6097,13 @@
         <v>1.54</v>
       </c>
       <c r="P42" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q42" t="n">
         <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
         <v>5.1</v>
@@ -6115,13 +6115,13 @@
         <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G43" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H43" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J43" t="n">
         <v>5.7</v>
@@ -6220,28 +6220,28 @@
         <v>6.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R43" t="n">
         <v>1.59</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T43" t="n">
         <v>2</v>
@@ -6250,34 +6250,34 @@
         <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="X43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y43" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA43" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD43" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE43" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="n">
         <v>10.5</v>
@@ -6289,7 +6289,7 @@
         <v>34</v>
       </c>
       <c r="AI43" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ43" t="n">
         <v>13</v>
@@ -6301,7 +6301,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
         <v>5.8</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
         <v>2.08</v>
@@ -6355,19 +6355,19 @@
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q44" t="n">
         <v>1.7</v>
@@ -6376,19 +6376,19 @@
         <v>1.51</v>
       </c>
       <c r="S44" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T44" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V44" t="n">
         <v>1.84</v>
       </c>
       <c r="W44" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X44" t="n">
         <v>25</v>
@@ -6397,25 +6397,25 @@
         <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA44" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB44" t="n">
         <v>18</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD44" t="n">
         <v>11.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
         <v>16</v>
@@ -6424,16 +6424,16 @@
         <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ44" t="n">
         <v>65</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.41</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.15</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>6.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,100 +937,100 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>23</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -1072,103 +1072,103 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1207,82 +1207,82 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1291,7 +1291,7 @@
         <v>9.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>70</v>
@@ -1309,10 +1309,10 @@
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,73 +1342,73 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1417,7 +1417,7 @@
         <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
@@ -1429,19 +1429,19 @@
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
         <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>18</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1504,55 +1504,55 @@
         <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
         <v>48</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1636,34 +1636,34 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1771,16 +1771,16 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.42</v>
@@ -1792,16 +1792,16 @@
         <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
         <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
         <v>15.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
       <c r="J11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.24</v>
@@ -1906,46 +1906,46 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
         <v>150</v>
       </c>
       <c r="AA11" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
@@ -1957,34 +1957,34 @@
         <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>11</v>
       </c>
-      <c r="AH11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>280</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,13 +2035,13 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2050,13 +2050,13 @@
         <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2065,25 +2065,25 @@
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2104,13 +2104,13 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
         <v>29</v>
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P13" t="n">
         <v>1.54</v>
@@ -2191,25 +2191,25 @@
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X13" t="n">
         <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,37 +2218,37 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,67 +2287,67 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I14" t="n">
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
         <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>900</v>
@@ -2359,19 +2359,19 @@
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.49</v>
@@ -2446,40 +2446,40 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2515,7 +2515,7 @@
         <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,19 +2560,19 @@
         <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.49</v>
@@ -2587,22 +2587,22 @@
         <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
         <v>1.45</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2632,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2647,13 +2647,13 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
         <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
         <v>1.55</v>
@@ -2716,70 +2716,70 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
         <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2827,43 +2827,43 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L18" t="n">
         <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
         <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
         <v>4.7</v>
@@ -2875,19 +2875,19 @@
         <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X18" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>65</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>220</v>
@@ -2899,31 +2899,31 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.47</v>
@@ -2986,10 +2986,10 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
         <v>1.76</v>
@@ -3001,46 +3001,46 @@
         <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3049,10 +3049,10 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO19" t="n">
         <v>600</v>
@@ -3100,16 +3100,16 @@
         <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
         <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>3.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
@@ -3130,13 +3130,13 @@
         <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.87</v>
@@ -3145,64 +3145,64 @@
         <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
         <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF20" t="n">
         <v>85</v>
       </c>
-      <c r="AB20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
       <c r="AG20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
       <c r="AI20" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3232,76 +3232,76 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.52</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
         <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>13.5</v>
@@ -3310,7 +3310,7 @@
         <v>85</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
@@ -3319,10 +3319,10 @@
         <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
         <v>75</v>
@@ -3331,13 +3331,13 @@
         <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
         <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3370,13 +3370,13 @@
         <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3391,16 +3391,16 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
@@ -3409,13 +3409,13 @@
         <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
         <v>1.01</v>
@@ -3439,7 +3439,7 @@
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
         <v>280</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
         <v>4.4</v>
@@ -3529,85 +3529,85 @@
         <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R23" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="n">
         <v>36</v>
       </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB23" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,76 +3637,76 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
         <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
         <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
         <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
         <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
         <v>14.5</v>
@@ -3715,10 +3715,10 @@
         <v>85</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>16</v>
@@ -3727,10 +3727,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>65</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3796,85 +3796,85 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S25" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="X25" t="n">
         <v>80</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE25" t="n">
         <v>220</v>
       </c>
-      <c r="AA25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>130</v>
-      </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
         <v>170</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,61 +3907,61 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G26" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>870</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="n">
         <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>2.46</v>
+        <v>4.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>2.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>1.51</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3973,10 +3973,10 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -3997,10 +3997,10 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
         <v>3.95</v>
@@ -4054,10 +4054,10 @@
         <v>2.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.42</v>
@@ -4066,25 +4066,25 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
@@ -4093,7 +4093,7 @@
         <v>1.76</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X27" t="n">
         <v>980</v>
@@ -4111,7 +4111,7 @@
         <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
         <v>40</v>
@@ -4132,7 +4132,7 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AK27" t="n">
         <v>120</v>
@@ -4144,7 +4144,7 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
         <v>55</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
         <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.33</v>
@@ -4207,46 +4207,46 @@
         <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
         <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S28" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T28" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
         <v>2.34</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
         <v>16.5</v>
@@ -4267,13 +4267,13 @@
         <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
@@ -4315,109 +4315,109 @@
         <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
         <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA29" t="n">
         <v>530</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>220</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>170</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4447,88 +4447,88 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
         <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
         <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
         <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -4537,22 +4537,22 @@
         <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -4582,43 +4582,43 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
         <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q31" t="n">
         <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
@@ -4630,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4648,7 +4648,7 @@
         <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
@@ -4666,16 +4666,16 @@
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="n">
         <v>350</v>
       </c>
       <c r="AJ31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK31" t="n">
         <v>85</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>70</v>
       </c>
       <c r="AL31" t="n">
         <v>200</v>
@@ -4687,7 +4687,7 @@
         <v>55</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4717,46 +4717,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G32" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
         <v>2.02</v>
@@ -4768,49 +4768,49 @@
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X32" t="n">
         <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
@@ -4819,7 +4819,7 @@
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO32" t="n">
         <v>130</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="I33" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="W33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD33" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>10</v>
-      </c>
       <c r="AE33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH33" t="n">
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL33" t="n">
         <v>65</v>
       </c>
-      <c r="AL33" t="n">
-        <v>70</v>
-      </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
         <v>75</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -4990,16 +4990,16 @@
         <v>4.7</v>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>1.86</v>
       </c>
       <c r="I34" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
         <v>3.95</v>
@@ -5017,52 +5017,52 @@
         <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W34" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF34" t="n">
         <v>36</v>
@@ -5071,13 +5071,13 @@
         <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
         <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="n">
         <v>55</v>
@@ -5086,13 +5086,13 @@
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
         <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="I35" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
@@ -5140,7 +5140,7 @@
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5155,25 +5155,25 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
         <v>1.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X35" t="n">
         <v>22</v>
@@ -5185,28 +5185,28 @@
         <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC35" t="n">
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
         <v>26</v>
@@ -5224,10 +5224,10 @@
         <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="36">
@@ -5269,10 +5269,10 @@
         <v>6.2</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -5281,19 +5281,19 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
         <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
         <v>3.05</v>
@@ -5314,19 +5314,19 @@
         <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
         <v>48</v>
       </c>
       <c r="AA36" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
@@ -5335,7 +5335,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG36" t="n">
         <v>9.800000000000001</v>
@@ -5356,13 +5356,13 @@
         <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO36" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G37" t="n">
         <v>3.15</v>
       </c>
-      <c r="G37" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H37" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J37" t="n">
         <v>3.65</v>
@@ -5410,40 +5410,40 @@
         <v>3.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
         <v>2.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T37" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V37" t="n">
         <v>1.69</v>
       </c>
       <c r="W37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X37" t="n">
         <v>18.5</v>
@@ -5458,10 +5458,10 @@
         <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD37" t="n">
         <v>11.5</v>
@@ -5470,7 +5470,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
         <v>13.5</v>
@@ -5482,7 +5482,7 @@
         <v>30</v>
       </c>
       <c r="AJ37" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK37" t="n">
         <v>30</v>
@@ -5494,7 +5494,7 @@
         <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
         <v>14.5</v>
@@ -5533,10 +5533,10 @@
         <v>5.5</v>
       </c>
       <c r="H38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.71</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.72</v>
       </c>
       <c r="J38" t="n">
         <v>4.3</v>
@@ -5545,37 +5545,37 @@
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>1.59</v>
       </c>
       <c r="R38" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T38" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U38" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W38" t="n">
         <v>1.22</v>
@@ -5584,7 +5584,7 @@
         <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
         <v>12.5</v>
@@ -5599,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -5608,10 +5608,10 @@
         <v>46</v>
       </c>
       <c r="AG38" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI38" t="n">
         <v>25</v>
@@ -5629,7 +5629,7 @@
         <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
         <v>7</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L39" t="n">
         <v>1.57</v>
@@ -5686,55 +5686,55 @@
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R39" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,16 +5743,16 @@
         <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="H40" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
         <v>1.43</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U40" t="n">
         <v>2</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W40" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
@@ -5884,10 +5884,10 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H41" t="n">
         <v>4.7</v>
       </c>
       <c r="I41" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
@@ -5959,37 +5959,37 @@
         <v>2.78</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P41" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q41" t="n">
         <v>2.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T41" t="n">
         <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V41" t="n">
         <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
         <v>34</v>
@@ -6001,13 +6001,13 @@
         <v>6.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="n">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="AF41" t="n">
         <v>10.5</v>
@@ -6022,16 +6022,16 @@
         <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
         <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN41" t="n">
         <v>25</v>
@@ -6076,7 +6076,7 @@
         <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
         <v>3.05</v>
@@ -6091,85 +6091,85 @@
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O42" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P42" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q42" t="n">
         <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S42" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T42" t="n">
         <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V42" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
         <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G43" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J43" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K43" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6232,31 +6232,31 @@
         <v>1.2</v>
       </c>
       <c r="P43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S43" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U43" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V43" t="n">
         <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="X43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y43" t="n">
         <v>44</v>
@@ -6265,10 +6265,10 @@
         <v>120</v>
       </c>
       <c r="AA43" t="n">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="AB43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC43" t="n">
         <v>16</v>
@@ -6280,7 +6280,7 @@
         <v>190</v>
       </c>
       <c r="AF43" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6292,19 +6292,19 @@
         <v>150</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK43" t="n">
         <v>17.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM43" t="n">
         <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H44" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.08</v>
       </c>
-      <c r="I44" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
         <v>1.33</v>
@@ -6361,73 +6361,73 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
         <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q44" t="n">
         <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S44" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T44" t="n">
         <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W44" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA44" t="n">
         <v>25</v>
       </c>
-      <c r="Y44" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>27</v>
-      </c>
       <c r="AB44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="n">
         <v>29</v>
       </c>
       <c r="AG44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH44" t="n">
         <v>16</v>
       </c>
-      <c r="AH44" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI44" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="n">
         <v>40</v>
@@ -6439,10 +6439,10 @@
         <v>70</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO44" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G2" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="X2" t="n">
         <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AA2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>860</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>65</v>
       </c>
-      <c r="AE2" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>60</v>
-      </c>
       <c r="AI2" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>370</v>
+        <v>770</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
       </c>
-      <c r="Z3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
         <v>23</v>
       </c>
-      <c r="AK4" t="n">
-        <v>22</v>
-      </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.31</v>
@@ -1096,40 +1096,40 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,43 +1141,43 @@
         <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK5" t="n">
         <v>17.5</v>
       </c>
-      <c r="AK5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1207,82 +1207,82 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1294,25 +1294,25 @@
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.55</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF7" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1477,103 +1477,103 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>48</v>
       </c>
-      <c r="Z8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>160</v>
-      </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1636,37 +1636,37 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1678,22 +1678,22 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>48</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>19.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.38</v>
@@ -1771,31 +1771,31 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.87</v>
@@ -1804,7 +1804,7 @@
         <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>40</v>
@@ -1840,16 +1840,16 @@
         <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="I11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
         <v>7.6</v>
@@ -1900,64 +1900,64 @@
         <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA11" t="n">
-        <v>670</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AF11" t="n">
         <v>8.6</v>
@@ -1966,13 +1966,13 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
         <v>11.5</v>
@@ -1981,13 +1981,13 @@
         <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
         <v>3.2</v>
@@ -2035,94 +2035,94 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
         <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2152,103 +2152,103 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
         <v>20</v>
       </c>
-      <c r="Y13" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,67 +2287,67 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.24</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
         <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
         <v>2.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
         <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
         <v>1.01</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z14" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>900</v>
@@ -2356,22 +2356,22 @@
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.18</v>
@@ -2434,22 +2434,22 @@
         <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
         <v>1.72</v>
@@ -2464,22 +2464,22 @@
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
         <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,31 +2488,31 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
         <v>80</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,37 +2557,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
         <v>2.24</v>
@@ -2599,43 +2599,43 @@
         <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
         <v>14.5</v>
@@ -2644,25 +2644,25 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
         <v>220</v>
       </c>
       <c r="AK16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2701,13 +2701,13 @@
         <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.55</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
@@ -2725,25 +2725,25 @@
         <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
         <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
         <v>9.6</v>
@@ -2758,7 +2758,7 @@
         <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2770,22 +2770,22 @@
         <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AH17" t="n">
         <v>44</v>
       </c>
       <c r="AI17" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="J18" t="n">
         <v>2.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P18" t="n">
         <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="Y18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AH18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>420</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN18" t="n">
         <v>55</v>
       </c>
-      <c r="AG18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>420</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
         <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
         <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
         <v>34</v>
@@ -3028,16 +3028,16 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3046,13 +3046,13 @@
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -3109,46 +3109,46 @@
         <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>11.5</v>
@@ -3157,10 +3157,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
@@ -3172,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF20" t="n">
         <v>85</v>
@@ -3181,16 +3181,16 @@
         <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>130</v>
       </c>
       <c r="AJ20" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3235,16 +3235,16 @@
         <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
@@ -3256,55 +3256,55 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
         <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
         <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
         <v>85</v>
@@ -3316,28 +3316,28 @@
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
         <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -3367,97 +3367,97 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="G22" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I22" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.3</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
         <v>1.01</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ22" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
         <v>120</v>
@@ -3472,7 +3472,7 @@
         <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G23" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
         <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="n">
         <v>1.49</v>
       </c>
       <c r="R23" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
         <v>26</v>
@@ -3565,10 +3565,10 @@
         <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
         <v>16.5</v>
@@ -3586,13 +3586,13 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
         <v>17.5</v>
@@ -3601,13 +3601,13 @@
         <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3667,7 +3667,7 @@
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.67</v>
@@ -3679,70 +3679,70 @@
         <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
         <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
         <v>65</v>
       </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H25" t="n">
         <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3796,7 +3796,7 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
@@ -3805,37 +3805,37 @@
         <v>2.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
         <v>1.71</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X25" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Z25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
         <v>14</v>
@@ -3844,40 +3844,40 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL25" t="n">
         <v>24</v>
       </c>
-      <c r="AK25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
       <c r="AM25" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="AN25" t="n">
         <v>7.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3907,76 +3907,76 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.53</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.51</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,22 +3985,22 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H27" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4066,43 +4066,43 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S27" t="n">
         <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>900</v>
@@ -4111,7 +4111,7 @@
         <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD27" t="n">
         <v>40</v>
@@ -4126,13 +4126,13 @@
         <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
         <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="AK27" t="n">
         <v>120</v>
@@ -4180,109 +4180,109 @@
         <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H28" t="n">
         <v>3.8</v>
       </c>
       <c r="I28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J28" t="n">
         <v>4.1</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="S28" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="U28" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y28" t="n">
         <v>22</v>
       </c>
-      <c r="Y28" t="n">
-        <v>19</v>
-      </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
         <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>30</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
       </c>
       <c r="H29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T29" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X29" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y29" t="n">
         <v>22</v>
       </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
       <c r="Z29" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4471,37 +4471,37 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
         <v>4.3</v>
       </c>
       <c r="T30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.93</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>8.6</v>
@@ -4510,34 +4510,34 @@
         <v>14</v>
       </c>
       <c r="AA30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="n">
         <v>50</v>
@@ -4546,13 +4546,13 @@
         <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
         <v>60</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
         <v>3.35</v>
@@ -4606,7 +4606,7 @@
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.38</v>
@@ -4618,22 +4618,22 @@
         <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4642,22 +4642,22 @@
         <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
         <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4666,19 +4666,19 @@
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
         <v>350</v>
       </c>
       <c r="AJ31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL31" t="n">
         <v>120</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>200</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.42</v>
@@ -4741,25 +4741,25 @@
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T32" t="n">
         <v>2.04</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.02</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
@@ -4768,13 +4768,13 @@
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X32" t="n">
         <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
         <v>55</v>
@@ -4783,7 +4783,7 @@
         <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
         <v>9.6</v>
@@ -4798,7 +4798,7 @@
         <v>8.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
@@ -4807,7 +4807,7 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="n">
         <v>16</v>
@@ -4819,10 +4819,10 @@
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,70 +4852,70 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G33" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="W33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -4924,37 +4924,37 @@
         <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
         <v>18</v>
       </c>
       <c r="AF33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI33" t="n">
         <v>36</v>
       </c>
-      <c r="AG33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
         <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AO33" t="n">
         <v>11</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I34" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="J34" t="n">
         <v>3.9</v>
@@ -5011,37 +5011,37 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -5050,34 +5050,34 @@
         <v>11.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
         <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
         <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
         <v>55</v>
@@ -5092,7 +5092,7 @@
         <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
@@ -5140,7 +5140,7 @@
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5152,31 +5152,31 @@
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S35" t="n">
         <v>2.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
         <v>2.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>12</v>
@@ -5185,28 +5185,28 @@
         <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI35" t="n">
         <v>26</v>
@@ -5224,10 +5224,10 @@
         <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="36">
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I36" t="n">
         <v>6</v>
       </c>
-      <c r="I36" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5287,67 +5287,67 @@
         <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
         <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA36" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK36" t="n">
         <v>15.5</v>
@@ -5359,10 +5359,10 @@
         <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J37" t="n">
         <v>3.65</v>
@@ -5416,37 +5416,37 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S37" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T37" t="n">
         <v>1.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V37" t="n">
         <v>1.69</v>
       </c>
       <c r="W37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>13.5</v>
@@ -5464,7 +5464,7 @@
         <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE37" t="n">
         <v>22</v>
@@ -5476,7 +5476,7 @@
         <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI37" t="n">
         <v>30</v>
@@ -5491,7 +5491,7 @@
         <v>36</v>
       </c>
       <c r="AM37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN37" t="n">
         <v>23</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G38" t="n">
         <v>5.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I38" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
         <v>4.3</v>
@@ -5545,7 +5545,7 @@
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5560,22 +5560,22 @@
         <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S38" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T38" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U38" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
         <v>1.22</v>
@@ -5599,16 +5599,16 @@
         <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
         <v>16.5</v>
@@ -5617,7 +5617,7 @@
         <v>25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK38" t="n">
         <v>55</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U39" t="n">
         <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
         <v>9.199999999999999</v>
@@ -5722,28 +5722,28 @@
         <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC39" t="n">
         <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
         <v>48</v>
@@ -5752,10 +5752,10 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5797,55 +5797,55 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G40" t="n">
         <v>2.42</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W40" t="n">
         <v>1.7</v>
@@ -5881,13 +5881,13 @@
         <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AK40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5935,7 +5935,7 @@
         <v>2.06</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>4.7</v>
@@ -5956,19 +5956,19 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.54</v>
       </c>
       <c r="P41" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
         <v>5.4</v>
@@ -5986,22 +5986,22 @@
         <v>1.92</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="n">
         <v>6.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
         <v>20</v>
@@ -6010,28 +6010,28 @@
         <v>470</v>
       </c>
       <c r="AF41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="n">
         <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AL41" t="n">
         <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
         <v>25</v>
@@ -6079,7 +6079,7 @@
         <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>3.3</v>
@@ -6094,25 +6094,25 @@
         <v>2.72</v>
       </c>
       <c r="O42" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P42" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R42" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T42" t="n">
         <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
@@ -6121,55 +6121,55 @@
         <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG42" t="n">
         <v>14</v>
       </c>
-      <c r="Z42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12</v>
-      </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK42" t="n">
         <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G43" t="n">
         <v>1.33</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
         <v>6.2</v>
       </c>
       <c r="K43" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6232,79 +6232,79 @@
         <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
         <v>2.5</v>
       </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X43" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y43" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z43" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AA43" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AB43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG43" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13</v>
-      </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ43" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G44" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I44" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
         <v>1.33</v>
@@ -6367,13 +6367,13 @@
         <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
         <v>2.76</v>
@@ -6382,43 +6382,43 @@
         <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W44" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB44" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH44" t="n">
         <v>16</v>
@@ -6427,22 +6427,22 @@
         <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.26</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>19.5</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.84</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>860</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL2" t="n">
         <v>65</v>
       </c>
-      <c r="AI2" t="n">
-        <v>720</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
       <c r="AM2" t="n">
-        <v>770</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>960</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,102 +788,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>1.23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.55</v>
+        <v>24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>8.4</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>9.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>2.24</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.06</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>600</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>3.7</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>180</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>1.17</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>1.19</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>9.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.64</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.65</v>
       </c>
       <c r="U5" t="n">
         <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>6.6</v>
       </c>
       <c r="W5" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>4.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
         <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trans Narva</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.46</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>5.2</v>
       </c>
-      <c r="K6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.74</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>2.98</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>5.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>9.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>4.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="AO7" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.6</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO8" t="n">
         <v>75</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SFC Opava</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>3.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>1.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>4.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="S9" t="n">
-        <v>2.82</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>1.77</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.4</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Pribram</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>2.98</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>9.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>2.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>4.9</v>
+        <v>2.24</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>1.64</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>7.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
         <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S13" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>2.44</v>
       </c>
       <c r="X13" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>42</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>20</v>
       </c>
-      <c r="AG13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>85</v>
-      </c>
       <c r="AK13" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,105 +2273,105 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>1.78</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>1.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.36</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
         <v>1.52</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2386,19 +2386,19 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>38</v>
       </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>140</v>
-      </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.24</v>
+        <v>1.49</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>7.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.22</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.59</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
         <v>70</v>
       </c>
-      <c r="AF17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.1</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
         <v>2.92</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
         <v>44</v>
       </c>
-      <c r="AL18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>55</v>
-      </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -3121,94 +3121,94 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="n">
         <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
         <v>14</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO20" t="n">
         <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>2.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.7</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
         <v>25</v>
       </c>
-      <c r="AA21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.76</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.67</v>
+        <v>2.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>2.54</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN22" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>420</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>600</v>
-      </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
         <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>2.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
         <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
         <v>2.54</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG24" t="n">
         <v>14</v>
       </c>
-      <c r="AE24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL24" t="n">
         <v>36</v>
       </c>
-      <c r="AK24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.28</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P25" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>2.54</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
         <v>42</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO25" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.69</v>
+        <v>4.9</v>
       </c>
       <c r="G26" t="n">
-        <v>1.81</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>2.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.6</v>
+        <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="S26" t="n">
-        <v>5.5</v>
+        <v>2.64</v>
       </c>
       <c r="T26" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>2.46</v>
       </c>
       <c r="V26" t="n">
-        <v>1.16</v>
+        <v>2.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>190</v>
-      </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>1.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="V27" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.98</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.99</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>1.84</v>
       </c>
       <c r="I28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.9</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
         <v>4.2</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="X28" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI28" t="n">
         <v>34</v>
       </c>
-      <c r="AA28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN28" t="n">
         <v>60</v>
       </c>
-      <c r="AN28" t="n">
-        <v>55</v>
-      </c>
       <c r="AO28" t="n">
-        <v>210</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.85</v>
+        <v>5.3</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>1.81</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>1.82</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.22</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>18.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.6</v>
+        <v>95</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S30" t="n">
         <v>3.55</v>
       </c>
-      <c r="G30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.36</v>
+        <v>2.68</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF30" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>24</v>
-      </c>
       <c r="AG30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK30" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>50</v>
-      </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="P31" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,123 +4703,123 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="W32" t="n">
-        <v>2.62</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>2.14</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.81</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.66</v>
       </c>
       <c r="R33" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="U33" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="V33" t="n">
-        <v>2.22</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO33" t="n">
         <v>130</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>2.16</v>
       </c>
       <c r="H34" t="n">
-        <v>1.83</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.84</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>2.66</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="V34" t="n">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
         <v>32</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>55</v>
-      </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1.29</v>
       </c>
       <c r="G35" t="n">
-        <v>5.2</v>
+        <v>1.31</v>
       </c>
       <c r="H35" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>1.76</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W35" t="n">
         <v>4.2</v>
       </c>
-      <c r="K35" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="n">
-        <v>40</v>
+        <v>8.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AJ35" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AN35" t="n">
-        <v>46</v>
+        <v>4.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>7.8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,1206 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.65</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="V36" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="W36" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="n">
         <v>46</v>
       </c>
-      <c r="AA36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="AM36" t="n">
         <v>75</v>
       </c>
-      <c r="AF36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG36" t="n">
+      <c r="AN36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO36" t="n">
         <v>10</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>16:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X37" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>16:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Paris St-G</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Atletico Huila</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X41" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X42" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Puebla</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W43" t="n">
-        <v>4</v>
-      </c>
-      <c r="X43" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>540</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>1.93</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.21</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>5.7</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>23</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>410</v>
+        <v>3.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>160</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>6.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.54</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>2.14</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>1.35</v>
       </c>
       <c r="O3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>55</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.37</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.86</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,586 +868,46 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.1</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>440</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Puebla</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.6</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
